--- a/Amy Stayduhar_.xlsx
+++ b/Amy Stayduhar_.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="368">
   <si>
     <t>Date</t>
   </si>
@@ -1032,16 +1032,67 @@
     <t>Students/Tabby</t>
   </si>
   <si>
+    <t>Weekly Summary</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mon 9:05 AM -  Mon 11:05 AM</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mon 11:30 AM -  Mon 1:05 PM</t>
   </si>
   <si>
+    <t>Mon Day Summary</t>
+  </si>
+  <si>
+    <t>Mon Night Average</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mon 1:30 PM -  Mon 3:00 PM</t>
   </si>
   <si>
+    <t>Tue Day Summary</t>
+  </si>
+  <si>
+    <t>Tue Night Average</t>
+  </si>
+  <si>
+    <t>Wed Day Summary</t>
+  </si>
+  <si>
+    <t>Wed Night Average</t>
+  </si>
+  <si>
+    <t>Thu Day Summary</t>
+  </si>
+  <si>
+    <t>Thu Night Average</t>
+  </si>
+  <si>
+    <t>Fri Day Summary</t>
+  </si>
+  <si>
+    <t>Fri Night Average</t>
+  </si>
+  <si>
+    <t>Sat Day Summary</t>
+  </si>
+  <si>
+    <t>Sat Night Average</t>
+  </si>
+  <si>
+    <t>Sun Day Summary</t>
+  </si>
+  <si>
+    <t>Sun Night Average</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Tue 8:35 AM -  Tue 10:35 AM</t>
+  </si>
+  <si>
+    <t>Weekly Average</t>
   </si>
   <si>
     <t xml:space="preserve"> Tue 11:00 AM -  Tue 12:35 PM</t>
@@ -1088,7 +1139,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -1124,6 +1175,16 @@
         <bgColor rgb="00f2b8ea"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f7d28a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c6c0ed"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1137,13 +1198,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -5065,7 +5128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5078,9 +5141,13 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="7" min="7" width="16"/>
+    <col customWidth="1" max="8" min="8" width="16"/>
+    <col customWidth="1" max="9" min="9" width="16"/>
+    <col customWidth="1" max="10" min="10" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5093,10 +5160,13 @@
       <c r="D1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" t="n">
         <v>2.28</v>
@@ -5107,10 +5177,22 @@
       <c r="D2" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B3" t="n">
         <v>2.5</v>
@@ -5121,10 +5203,20 @@
       <c r="D3" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" s="7" t="n"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B4" t="n">
         <v>2.79</v>
@@ -5135,12 +5227,62 @@
       <c r="D4" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="5" spans="1:4"/>
-    <row r="6" spans="1:4"/>
-    <row r="7" spans="1:4"/>
-    <row r="8" spans="1:4"/>
-    <row r="9" spans="1:4">
+      <c r="G4" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J4" s="7" t="n"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="7" t="n"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J6" s="7" t="n"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="G7" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="J7" s="7" t="n"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="G8" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" s="7" t="n"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -5153,10 +5295,20 @@
       <c r="D9" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -5167,10 +5319,19 @@
       <c r="D10" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B11" t="n">
         <v>2.95</v>
@@ -5182,9 +5343,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B12" t="n">
         <v>3.3</v>
@@ -5196,11 +5357,11 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="13" spans="1:4"/>
-    <row r="14" spans="1:4"/>
-    <row r="15" spans="1:4"/>
-    <row r="16" spans="1:4"/>
-    <row r="17" spans="1:4">
+    <row r="13" spans="1:10"/>
+    <row r="14" spans="1:10"/>
+    <row r="15" spans="1:10"/>
+    <row r="16" spans="1:10"/>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5214,9 +5375,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B18" t="n">
         <v>2.04</v>
@@ -5228,9 +5389,9 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B19" t="n">
         <v>2.72</v>
@@ -5242,9 +5403,9 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B20" t="n">
         <v>2.28</v>
@@ -5256,11 +5417,11 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="21" spans="1:4"/>
-    <row r="22" spans="1:4"/>
-    <row r="23" spans="1:4"/>
-    <row r="24" spans="1:4"/>
-    <row r="25" spans="1:4">
+    <row r="21" spans="1:10"/>
+    <row r="22" spans="1:10"/>
+    <row r="23" spans="1:10"/>
+    <row r="24" spans="1:10"/>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -5274,9 +5435,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B26" t="n">
         <v>2.58</v>
@@ -5288,9 +5449,9 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B27" t="n">
         <v>2.75</v>
@@ -5302,12 +5463,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:4"/>
-    <row r="29" spans="1:4"/>
-    <row r="30" spans="1:4"/>
-    <row r="31" spans="1:4"/>
-    <row r="32" spans="1:4"/>
-    <row r="33" spans="1:4">
+    <row r="28" spans="1:10"/>
+    <row r="29" spans="1:10"/>
+    <row r="30" spans="1:10"/>
+    <row r="31" spans="1:10"/>
+    <row r="32" spans="1:10"/>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -5321,14 +5482,14 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:4"/>
-    <row r="35" spans="1:4"/>
-    <row r="36" spans="1:4"/>
-    <row r="37" spans="1:4"/>
-    <row r="38" spans="1:4"/>
-    <row r="39" spans="1:4"/>
-    <row r="40" spans="1:4"/>
-    <row r="41" spans="1:4">
+    <row r="34" spans="1:10"/>
+    <row r="35" spans="1:10"/>
+    <row r="36" spans="1:10"/>
+    <row r="37" spans="1:10"/>
+    <row r="38" spans="1:10"/>
+    <row r="39" spans="1:10"/>
+    <row r="40" spans="1:10"/>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -5342,14 +5503,14 @@
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:4"/>
-    <row r="43" spans="1:4"/>
-    <row r="44" spans="1:4"/>
-    <row r="45" spans="1:4"/>
-    <row r="46" spans="1:4"/>
-    <row r="47" spans="1:4"/>
-    <row r="48" spans="1:4"/>
-    <row r="49" spans="1:4">
+    <row r="42" spans="1:10"/>
+    <row r="43" spans="1:10"/>
+    <row r="44" spans="1:10"/>
+    <row r="45" spans="1:10"/>
+    <row r="46" spans="1:10"/>
+    <row r="47" spans="1:10"/>
+    <row r="48" spans="1:10"/>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -5363,9 +5524,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B50" t="n">
         <v>1.09</v>
@@ -5377,9 +5538,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -5391,11 +5552,11 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="52" spans="1:4"/>
-    <row r="53" spans="1:4"/>
-    <row r="54" spans="1:4"/>
-    <row r="55" spans="1:4"/>
-    <row r="56" spans="1:4"/>
+    <row r="52" spans="1:10"/>
+    <row r="53" spans="1:10"/>
+    <row r="54" spans="1:10"/>
+    <row r="55" spans="1:10"/>
+    <row r="56" spans="1:10"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Amy Stayduhar_.xlsx
+++ b/Amy Stayduhar_.xlsx
@@ -1127,7 +1127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1137,6 +1137,14 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1198,15 +1206,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -5141,10 +5151,10 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="7" min="7" width="16"/>
-    <col customWidth="1" max="8" min="8" width="16"/>
-    <col customWidth="1" max="9" min="9" width="16"/>
-    <col customWidth="1" max="10" min="10" width="16"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="20"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5160,7 +5170,7 @@
       <c r="D1" t="s">
         <v>337</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5203,16 +5213,16 @@
       <c r="D3" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="7" t="n">
         <v>0.78</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="J3" s="7" t="n"/>
+      <c r="J3" s="8" t="n"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -5227,60 +5237,60 @@
       <c r="D4" t="n">
         <v>0.82</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>0.74</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="J4" s="7" t="n"/>
+      <c r="J4" s="8" t="n"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>0.67</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="J5" s="7" t="n"/>
+      <c r="J5" s="8" t="n"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="7" t="n">
         <v>0.74</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="J6" s="7" t="n"/>
+      <c r="J6" s="8" t="n"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H7" s="6" t="n"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="7" t="n"/>
+      <c r="I7" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="J7" s="7" t="n"/>
+      <c r="J7" s="8" t="n"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="7" t="n"/>
+      <c r="I8" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="J8" s="7" t="n"/>
+      <c r="J8" s="8" t="n"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -5295,14 +5305,14 @@
       <c r="D9" t="s">
         <v>337</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="7" t="n"/>
+      <c r="I9" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="8" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -5319,13 +5329,14 @@
       <c r="D10" t="n">
         <v>0.63</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="9" t="n">
         <v>0.73</v>
       </c>
-      <c r="J10" t="n">
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n">
         <v>0.42</v>
       </c>
     </row>
